--- a/AnalysisSheet.xlsx
+++ b/AnalysisSheet.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>SBIN-273</t>
   </si>
@@ -50,49 +52,31 @@
     <t>buy</t>
   </si>
   <si>
-    <t>275 CE</t>
-  </si>
-  <si>
-    <t>275 PE</t>
-  </si>
-  <si>
-    <t>285 CE</t>
-  </si>
-  <si>
-    <t>265 PE</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d-m-yy"/>
-    <numFmt numFmtId="60" formatCode="dd-mmm-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d\-m\-yy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +93,30 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -227,72 +235,84 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -303,26 +323,82 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -448,7 +524,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -457,7 +533,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -466,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -530,8 +606,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -539,7 +615,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -547,7 +623,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -566,7 +642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -574,7 +650,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -602,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -654,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,9 +899,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -842,7 +924,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -861,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,9 +1190,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1124,7 +1212,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1143,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,43 +1482,47 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:IV86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1953" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
+    <row r="1" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
@@ -1440,7 +1532,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
+    <row r="2" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
@@ -1452,73 +1544,73 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
+    <row r="3" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="11">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="12">
-        <v>305</v>
+        <v>8900</v>
       </c>
       <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <v>1.9</v>
+        <v>11.5</v>
       </c>
       <c r="E4" s="14">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="12">
-        <v>310</v>
+        <v>8100</v>
       </c>
       <c r="C6" s="13">
-        <v>1.4</v>
+        <v>240</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
@@ -1530,27 +1622,27 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12">
-        <v>240</v>
+        <v>8000</v>
       </c>
       <c r="C7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
       </c>
       <c r="E7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
+    <row r="8" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
@@ -1560,2103 +1652,2103 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="19">
         <v>41236</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
+    <row r="10" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" t="s" s="10">
+      <c r="C10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="11">
-        <v>16</v>
-      </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
+    <row r="11" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="12">
-        <v>250</v>
+        <v>7100</v>
       </c>
       <c r="C11" s="13">
-        <f>IF(B11-$B$4-$D$4&gt;0,-1*(B11-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f>IF(B11-$B$4&gt;0,-1*(B11-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
+        <v>241.5</v>
       </c>
       <c r="D11" s="14">
-        <f>IF($B$5-B11-$D$5&gt;0,-1*($B$5-B11-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f>IF($B$5-B11&gt;0,-1*($B$5-B11-$D$5)*$E$5,$D$5*$E$5)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="14">
-        <f>IF(B11-$B$6-$C$6&gt;0,(B11-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f>IF(B11-$B$6&gt;0,(B11-$B$6-$C$6)*$E$6,-1 * $C$6*$E$6)</f>
+        <v>-240</v>
       </c>
       <c r="F11" s="14">
-        <f>IF($B$7-B11-$C$7&gt;0,($B$7-B11-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f>IF($B$7-B11&gt;0,($B$7-B11-$C$7)*$E$7,-1*$C$7*$E$7)</f>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f>SUM(C11:F11)</f>
-        <v>4.1</v>
+        <f t="shared" ref="G11:G42" si="0">SUM(C11:F11)</f>
+        <v>1.5</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
+    <row r="12" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="12">
-        <v>251</v>
+        <v>7150</v>
       </c>
       <c r="C12" s="13">
-        <f>IF(B12-$B$4-$D$4&gt;0,-1*(B12-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" ref="C12:C75" si="1">IF(B12-$B$4&gt;0,-1*(B12-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
+        <v>241.5</v>
       </c>
       <c r="D12" s="14">
-        <f>IF($B$5-B12-$D$5&gt;0,-1*($B$5-B12-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" ref="D12:D75" si="2">IF($B$5-B12&gt;0,-1*($B$5-B12-$D$5)*$E$5,$D$5*$E$5)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="14">
-        <f>IF(B12-$B$6-$C$6&gt;0,(B12-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" ref="E12:E75" si="3">IF(B12-$B$6&gt;0,(B12-$B$6-$C$6)*$E$6,-1 * $C$6*$E$6)</f>
+        <v>-240</v>
       </c>
       <c r="F12" s="14">
-        <f>IF($B$7-B12-$C$7&gt;0,($B$7-B12-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" ref="F12:F75" si="4">IF($B$7-B12&gt;0,($B$7-B12-$C$7)*$E$7,-1*$C$7*$E$7)</f>
+        <v>0</v>
       </c>
       <c r="G12" s="14">
-        <f>SUM(C12:F12)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
+    <row r="13" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="12">
-        <v>252</v>
+        <v>7200</v>
       </c>
       <c r="C13" s="13">
-        <f>IF(B13-$B$4-$D$4&gt;0,-1*(B13-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D13" s="14">
-        <f>IF($B$5-B13-$D$5&gt;0,-1*($B$5-B13-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E13" s="14">
-        <f>IF(B13-$B$6-$C$6&gt;0,(B13-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F13" s="14">
-        <f>IF($B$7-B13-$C$7&gt;0,($B$7-B13-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
-        <f>SUM(C13:F13)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
+    <row r="14" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="12">
-        <v>253</v>
+        <v>7250</v>
       </c>
       <c r="C14" s="13">
-        <f>IF(B14-$B$4-$D$4&gt;0,-1*(B14-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D14" s="14">
-        <f>IF($B$5-B14-$D$5&gt;0,-1*($B$5-B14-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E14" s="14">
-        <f>IF(B14-$B$6-$C$6&gt;0,(B14-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F14" s="14">
-        <f>IF($B$7-B14-$C$7&gt;0,($B$7-B14-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
-        <f>SUM(C14:F14)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
+    <row r="15" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="12">
-        <v>254</v>
+        <v>7300</v>
       </c>
       <c r="C15" s="13">
-        <f>IF(B15-$B$4-$D$4&gt;0,-1*(B15-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D15" s="14">
-        <f>IF($B$5-B15-$D$5&gt;0,-1*($B$5-B15-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E15" s="14">
-        <f>IF(B15-$B$6-$C$6&gt;0,(B15-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F15" s="14">
-        <f>IF($B$7-B15-$C$7&gt;0,($B$7-B15-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G15" s="14">
-        <f>SUM(C15:F15)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
+    <row r="16" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="12">
-        <v>255</v>
+        <v>7350</v>
       </c>
       <c r="C16" s="13">
-        <f>IF(B16-$B$4-$D$4&gt;0,-1*(B16-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D16" s="14">
-        <f>IF($B$5-B16-$D$5&gt;0,-1*($B$5-B16-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E16" s="14">
-        <f>IF(B16-$B$6-$C$6&gt;0,(B16-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F16" s="14">
-        <f>IF($B$7-B16-$C$7&gt;0,($B$7-B16-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f>SUM(C16:F16)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
+    <row r="17" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="12">
-        <v>256</v>
+        <v>7400</v>
       </c>
       <c r="C17" s="13">
-        <f>IF(B17-$B$4-$D$4&gt;0,-1*(B17-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D17" s="14">
-        <f>IF($B$5-B17-$D$5&gt;0,-1*($B$5-B17-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E17" s="14">
-        <f>IF(B17-$B$6-$C$6&gt;0,(B17-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F17" s="14">
-        <f>IF($B$7-B17-$C$7&gt;0,($B$7-B17-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G17" s="14">
-        <f>SUM(C17:F17)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
+    <row r="18" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="12">
-        <v>257</v>
+        <v>7450</v>
       </c>
       <c r="C18" s="13">
-        <f>IF(B18-$B$4-$D$4&gt;0,-1*(B18-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D18" s="14">
-        <f>IF($B$5-B18-$D$5&gt;0,-1*($B$5-B18-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E18" s="14">
-        <f>IF(B18-$B$6-$C$6&gt;0,(B18-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F18" s="14">
-        <f>IF($B$7-B18-$C$7&gt;0,($B$7-B18-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G18" s="14">
-        <f>SUM(C18:F18)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
+    <row r="19" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="12">
-        <v>258</v>
+        <v>7500</v>
       </c>
       <c r="C19" s="13">
-        <f>IF(B19-$B$4-$D$4&gt;0,-1*(B19-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D19" s="14">
-        <f>IF($B$5-B19-$D$5&gt;0,-1*($B$5-B19-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E19" s="14">
-        <f>IF(B19-$B$6-$C$6&gt;0,(B19-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F19" s="14">
-        <f>IF($B$7-B19-$C$7&gt;0,($B$7-B19-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G19" s="14">
-        <f>SUM(C19:F19)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
+    <row r="20" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="12">
-        <v>259</v>
+        <v>7550</v>
       </c>
       <c r="C20" s="13">
-        <f>IF(B20-$B$4-$D$4&gt;0,-1*(B20-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D20" s="14">
-        <f>IF($B$5-B20-$D$5&gt;0,-1*($B$5-B20-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E20" s="14">
-        <f>IF(B20-$B$6-$C$6&gt;0,(B20-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F20" s="14">
-        <f>IF($B$7-B20-$C$7&gt;0,($B$7-B20-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G20" s="14">
-        <f>SUM(C20:F20)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
+    <row r="21" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="12">
-        <v>260</v>
+        <v>7600</v>
       </c>
       <c r="C21" s="13">
-        <f>IF(B21-$B$4-$D$4&gt;0,-1*(B21-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D21" s="14">
-        <f>IF($B$5-B21-$D$5&gt;0,-1*($B$5-B21-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E21" s="14">
-        <f>IF(B21-$B$6-$C$6&gt;0,(B21-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F21" s="14">
-        <f>IF($B$7-B21-$C$7&gt;0,($B$7-B21-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G21" s="14">
-        <f>SUM(C21:F21)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
+    <row r="22" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="12">
-        <v>261</v>
+        <v>7650</v>
       </c>
       <c r="C22" s="13">
-        <f>IF(B22-$B$4-$D$4&gt;0,-1*(B22-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D22" s="14">
-        <f>IF($B$5-B22-$D$5&gt;0,-1*($B$5-B22-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E22" s="14">
-        <f>IF(B22-$B$6-$C$6&gt;0,(B22-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F22" s="14">
-        <f>IF($B$7-B22-$C$7&gt;0,($B$7-B22-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G22" s="14">
-        <f>SUM(C22:F22)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
+    <row r="23" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="12">
-        <v>262</v>
+        <v>7700</v>
       </c>
       <c r="C23" s="13">
-        <f>IF(B23-$B$4-$D$4&gt;0,-1*(B23-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D23" s="14">
-        <f>IF($B$5-B23-$D$5&gt;0,-1*($B$5-B23-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E23" s="14">
-        <f>IF(B23-$B$6-$C$6&gt;0,(B23-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F23" s="14">
-        <f>IF($B$7-B23-$C$7&gt;0,($B$7-B23-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G23" s="14">
-        <f>SUM(C23:F23)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" ht="20.35" customHeight="1">
+    <row r="24" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="12">
-        <v>263</v>
+        <v>7750</v>
       </c>
       <c r="C24" s="13">
-        <f>IF(B24-$B$4-$D$4&gt;0,-1*(B24-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D24" s="14">
-        <f>IF($B$5-B24-$D$5&gt;0,-1*($B$5-B24-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E24" s="14">
-        <f>IF(B24-$B$6-$C$6&gt;0,(B24-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F24" s="14">
-        <f>IF($B$7-B24-$C$7&gt;0,($B$7-B24-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G24" s="14">
-        <f>SUM(C24:F24)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" ht="20.35" customHeight="1">
+    <row r="25" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="12">
-        <v>264</v>
+        <v>7800</v>
       </c>
       <c r="C25" s="13">
-        <f>IF(B25-$B$4-$D$4&gt;0,-1*(B25-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D25" s="14">
-        <f>IF($B$5-B25-$D$5&gt;0,-1*($B$5-B25-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E25" s="14">
-        <f>IF(B25-$B$6-$C$6&gt;0,(B25-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F25" s="14">
-        <f>IF($B$7-B25-$C$7&gt;0,($B$7-B25-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G25" s="14">
-        <f>SUM(C25:F25)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" ht="20.35" customHeight="1">
+    <row r="26" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="12">
-        <v>265</v>
+        <v>7850</v>
       </c>
       <c r="C26" s="13">
-        <f>IF(B26-$B$4-$D$4&gt;0,-1*(B26-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D26" s="14">
-        <f>IF($B$5-B26-$D$5&gt;0,-1*($B$5-B26-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E26" s="14">
-        <f>IF(B26-$B$6-$C$6&gt;0,(B26-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F26" s="14">
-        <f>IF($B$7-B26-$C$7&gt;0,($B$7-B26-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G26" s="14">
-        <f>SUM(C26:F26)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" ht="20.35" customHeight="1">
+    <row r="27" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="12">
-        <v>266</v>
+        <v>7900</v>
       </c>
       <c r="C27" s="13">
-        <f>IF(B27-$B$4-$D$4&gt;0,-1*(B27-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D27" s="14">
-        <f>IF($B$5-B27-$D$5&gt;0,-1*($B$5-B27-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f>IF(B27-$B$6-$C$6&gt;0,(B27-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F27" s="14">
-        <f>IF($B$7-B27-$C$7&gt;0,($B$7-B27-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G27" s="14">
-        <f>SUM(C27:F27)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" ht="20.35" customHeight="1">
+    <row r="28" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="12">
-        <v>267</v>
+        <v>7950</v>
       </c>
       <c r="C28" s="13">
-        <f>IF(B28-$B$4-$D$4&gt;0,-1*(B28-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D28" s="14">
-        <f>IF($B$5-B28-$D$5&gt;0,-1*($B$5-B28-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E28" s="14">
-        <f>IF(B28-$B$6-$C$6&gt;0,(B28-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F28" s="14">
-        <f>IF($B$7-B28-$C$7&gt;0,($B$7-B28-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G28" s="14">
-        <f>SUM(C28:F28)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" ht="20.35" customHeight="1">
+    <row r="29" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="12">
-        <v>268</v>
+        <v>8000</v>
       </c>
       <c r="C29" s="13">
-        <f>IF(B29-$B$4-$D$4&gt;0,-1*(B29-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D29" s="14">
-        <f>IF($B$5-B29-$D$5&gt;0,-1*($B$5-B29-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E29" s="14">
-        <f>IF(B29-$B$6-$C$6&gt;0,(B29-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F29" s="14">
-        <f>IF($B$7-B29-$C$7&gt;0,($B$7-B29-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G29" s="14">
-        <f>SUM(C29:F29)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" ht="20.35" customHeight="1">
+    <row r="30" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="12">
-        <v>269</v>
+        <v>8050</v>
       </c>
       <c r="C30" s="13">
-        <f>IF(B30-$B$4-$D$4&gt;0,-1*(B30-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D30" s="14">
-        <f>IF($B$5-B30-$D$5&gt;0,-1*($B$5-B30-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E30" s="14">
-        <f>IF(B30-$B$6-$C$6&gt;0,(B30-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F30" s="14">
-        <f>IF($B$7-B30-$C$7&gt;0,($B$7-B30-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G30" s="14">
-        <f>SUM(C30:F30)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" ht="20.35" customHeight="1">
+    <row r="31" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="12">
-        <v>270</v>
+        <v>8100</v>
       </c>
       <c r="C31" s="13">
-        <f>IF(B31-$B$4-$D$4&gt;0,-1*(B31-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D31" s="14">
-        <f>IF($B$5-B31-$D$5&gt;0,-1*($B$5-B31-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E31" s="14">
-        <f>IF(B31-$B$6-$C$6&gt;0,(B31-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-240</v>
       </c>
       <c r="F31" s="14">
-        <f>IF($B$7-B31-$C$7&gt;0,($B$7-B31-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G31" s="14">
-        <f>SUM(C31:F31)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" ht="20.35" customHeight="1">
+    <row r="32" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="12">
-        <v>271</v>
+        <v>8150</v>
       </c>
       <c r="C32" s="13">
-        <f>IF(B32-$B$4-$D$4&gt;0,-1*(B32-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D32" s="14">
-        <f>IF($B$5-B32-$D$5&gt;0,-1*($B$5-B32-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32" s="14">
-        <f>IF(B32-$B$6-$C$6&gt;0,(B32-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-190</v>
       </c>
       <c r="F32" s="14">
-        <f>IF($B$7-B32-$C$7&gt;0,($B$7-B32-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G32" s="14">
-        <f>SUM(C32:F32)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>51.5</v>
       </c>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" ht="20.35" customHeight="1">
+    <row r="33" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="12">
-        <v>272</v>
+        <v>8200</v>
       </c>
       <c r="C33" s="13">
-        <f>IF(B33-$B$4-$D$4&gt;0,-1*(B33-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D33" s="14">
-        <f>IF($B$5-B33-$D$5&gt;0,-1*($B$5-B33-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E33" s="14">
-        <f>IF(B33-$B$6-$C$6&gt;0,(B33-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-140</v>
       </c>
       <c r="F33" s="14">
-        <f>IF($B$7-B33-$C$7&gt;0,($B$7-B33-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G33" s="14">
-        <f>SUM(C33:F33)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>101.5</v>
       </c>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" ht="20.35" customHeight="1">
+    <row r="34" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="12">
-        <v>273</v>
+        <v>8250</v>
       </c>
       <c r="C34" s="13">
-        <f>IF(B34-$B$4-$D$4&gt;0,-1*(B34-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D34" s="14">
-        <f>IF($B$5-B34-$D$5&gt;0,-1*($B$5-B34-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E34" s="14">
-        <f>IF(B34-$B$6-$C$6&gt;0,(B34-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-90</v>
       </c>
       <c r="F34" s="14">
-        <f>IF($B$7-B34-$C$7&gt;0,($B$7-B34-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G34" s="14">
-        <f>SUM(C34:F34)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>151.5</v>
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" ht="20.35" customHeight="1">
+    <row r="35" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="12">
-        <v>274</v>
+        <v>8300</v>
       </c>
       <c r="C35" s="13">
-        <f>IF(B35-$B$4-$D$4&gt;0,-1*(B35-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D35" s="14">
-        <f>IF($B$5-B35-$D$5&gt;0,-1*($B$5-B35-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E35" s="14">
-        <f>IF(B35-$B$6-$C$6&gt;0,(B35-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>-40</v>
       </c>
       <c r="F35" s="14">
-        <f>IF($B$7-B35-$C$7&gt;0,($B$7-B35-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G35" s="14">
-        <f>SUM(C35:F35)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>201.5</v>
       </c>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" ht="20.35" customHeight="1">
+    <row r="36" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="12">
-        <v>275</v>
+        <v>8350</v>
       </c>
       <c r="C36" s="13">
-        <f>IF(B36-$B$4-$D$4&gt;0,-1*(B36-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D36" s="14">
-        <f>IF($B$5-B36-$D$5&gt;0,-1*($B$5-B36-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E36" s="14">
-        <f>IF(B36-$B$6-$C$6&gt;0,(B36-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="F36" s="14">
-        <f>IF($B$7-B36-$C$7&gt;0,($B$7-B36-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G36" s="14">
-        <f>SUM(C36:F36)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>251.5</v>
       </c>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" ht="20.35" customHeight="1">
+    <row r="37" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="12">
-        <v>276</v>
+        <v>8400</v>
       </c>
       <c r="C37" s="13">
-        <f>IF(B37-$B$4-$D$4&gt;0,-1*(B37-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D37" s="14">
-        <f>IF($B$5-B37-$D$5&gt;0,-1*($B$5-B37-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E37" s="14">
-        <f>IF(B37-$B$6-$C$6&gt;0,(B37-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="F37" s="14">
-        <f>IF($B$7-B37-$C$7&gt;0,($B$7-B37-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G37" s="14">
-        <f>SUM(C37:F37)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>301.5</v>
       </c>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" ht="20.35" customHeight="1">
+    <row r="38" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="12">
-        <v>277</v>
+        <v>8450</v>
       </c>
       <c r="C38" s="13">
-        <f>IF(B38-$B$4-$D$4&gt;0,-1*(B38-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D38" s="14">
-        <f>IF($B$5-B38-$D$5&gt;0,-1*($B$5-B38-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E38" s="14">
-        <f>IF(B38-$B$6-$C$6&gt;0,(B38-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="F38" s="14">
-        <f>IF($B$7-B38-$C$7&gt;0,($B$7-B38-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G38" s="14">
-        <f>SUM(C38:F38)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>351.5</v>
       </c>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" ht="20.35" customHeight="1">
+    <row r="39" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="12">
-        <v>278</v>
+        <v>8500</v>
       </c>
       <c r="C39" s="13">
-        <f>IF(B39-$B$4-$D$4&gt;0,-1*(B39-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D39" s="14">
-        <f>IF($B$5-B39-$D$5&gt;0,-1*($B$5-B39-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E39" s="14">
-        <f>IF(B39-$B$6-$C$6&gt;0,(B39-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="F39" s="14">
-        <f>IF($B$7-B39-$C$7&gt;0,($B$7-B39-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G39" s="14">
-        <f>SUM(C39:F39)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>401.5</v>
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" ht="20.35" customHeight="1">
+    <row r="40" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="12">
-        <v>279</v>
+        <v>8550</v>
       </c>
       <c r="C40" s="13">
-        <f>IF(B40-$B$4-$D$4&gt;0,-1*(B40-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D40" s="14">
-        <f>IF($B$5-B40-$D$5&gt;0,-1*($B$5-B40-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E40" s="14">
-        <f>IF(B40-$B$6-$C$6&gt;0,(B40-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="F40" s="14">
-        <f>IF($B$7-B40-$C$7&gt;0,($B$7-B40-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G40" s="14">
-        <f>SUM(C40:F40)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>451.5</v>
       </c>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" ht="20.35" customHeight="1">
+    <row r="41" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="12">
-        <v>280</v>
+        <v>8600</v>
       </c>
       <c r="C41" s="13">
-        <f>IF(B41-$B$4-$D$4&gt;0,-1*(B41-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D41" s="14">
-        <f>IF($B$5-B41-$D$5&gt;0,-1*($B$5-B41-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E41" s="14">
-        <f>IF(B41-$B$6-$C$6&gt;0,(B41-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>260</v>
       </c>
       <c r="F41" s="14">
-        <f>IF($B$7-B41-$C$7&gt;0,($B$7-B41-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G41" s="14">
-        <f>SUM(C41:F41)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>501.5</v>
       </c>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" ht="20.35" customHeight="1">
+    <row r="42" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="12">
-        <v>281</v>
+        <v>8650</v>
       </c>
       <c r="C42" s="13">
-        <f>IF(B42-$B$4-$D$4&gt;0,-1*(B42-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D42" s="14">
-        <f>IF($B$5-B42-$D$5&gt;0,-1*($B$5-B42-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E42" s="14">
-        <f>IF(B42-$B$6-$C$6&gt;0,(B42-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>310</v>
       </c>
       <c r="F42" s="14">
-        <f>IF($B$7-B42-$C$7&gt;0,($B$7-B42-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G42" s="14">
-        <f>SUM(C42:F42)</f>
-        <v>4.1</v>
+        <f t="shared" si="0"/>
+        <v>551.5</v>
       </c>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" ht="20.35" customHeight="1">
+    <row r="43" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="12">
-        <v>282</v>
+        <v>8700</v>
       </c>
       <c r="C43" s="13">
-        <f>IF(B43-$B$4-$D$4&gt;0,-1*(B43-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D43" s="14">
-        <f>IF($B$5-B43-$D$5&gt;0,-1*($B$5-B43-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E43" s="14">
-        <f>IF(B43-$B$6-$C$6&gt;0,(B43-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>360</v>
       </c>
       <c r="F43" s="14">
-        <f>IF($B$7-B43-$C$7&gt;0,($B$7-B43-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G43" s="14">
-        <f>SUM(C43:F43)</f>
-        <v>4.1</v>
+        <f t="shared" ref="G43:G74" si="5">SUM(C43:F43)</f>
+        <v>601.5</v>
       </c>
       <c r="H43" s="18"/>
     </row>
-    <row r="44" ht="20.35" customHeight="1">
+    <row r="44" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="12">
-        <v>283</v>
+        <v>8750</v>
       </c>
       <c r="C44" s="13">
-        <f>IF(B44-$B$4-$D$4&gt;0,-1*(B44-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D44" s="14">
-        <f>IF($B$5-B44-$D$5&gt;0,-1*($B$5-B44-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E44" s="14">
-        <f>IF(B44-$B$6-$C$6&gt;0,(B44-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>410</v>
       </c>
       <c r="F44" s="14">
-        <f>IF($B$7-B44-$C$7&gt;0,($B$7-B44-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G44" s="14">
-        <f>SUM(C44:F44)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>651.5</v>
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" ht="20.35" customHeight="1">
+    <row r="45" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="12">
-        <v>284</v>
+        <v>8800</v>
       </c>
       <c r="C45" s="13">
-        <f>IF(B45-$B$4-$D$4&gt;0,-1*(B45-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D45" s="14">
-        <f>IF($B$5-B45-$D$5&gt;0,-1*($B$5-B45-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E45" s="14">
-        <f>IF(B45-$B$6-$C$6&gt;0,(B45-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>460</v>
       </c>
       <c r="F45" s="14">
-        <f>IF($B$7-B45-$C$7&gt;0,($B$7-B45-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G45" s="14">
-        <f>SUM(C45:F45)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>701.5</v>
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" ht="20.35" customHeight="1">
+    <row r="46" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="12">
-        <v>285</v>
+        <v>8850</v>
       </c>
       <c r="C46" s="13">
-        <f>IF(B46-$B$4-$D$4&gt;0,-1*(B46-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D46" s="14">
-        <f>IF($B$5-B46-$D$5&gt;0,-1*($B$5-B46-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E46" s="14">
-        <f>IF(B46-$B$6-$C$6&gt;0,(B46-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>510</v>
       </c>
       <c r="F46" s="14">
-        <f>IF($B$7-B46-$C$7&gt;0,($B$7-B46-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G46" s="14">
-        <f>SUM(C46:F46)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>751.5</v>
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" ht="20.35" customHeight="1">
+    <row r="47" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="12">
-        <v>286</v>
+        <v>8900</v>
       </c>
       <c r="C47" s="13">
-        <f>IF(B47-$B$4-$D$4&gt;0,-1*(B47-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>241.5</v>
       </c>
       <c r="D47" s="14">
-        <f>IF($B$5-B47-$D$5&gt;0,-1*($B$5-B47-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E47" s="14">
-        <f>IF(B47-$B$6-$C$6&gt;0,(B47-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>560</v>
       </c>
       <c r="F47" s="14">
-        <f>IF($B$7-B47-$C$7&gt;0,($B$7-B47-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G47" s="14">
-        <f>SUM(C47:F47)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>801.5</v>
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" ht="20.35" customHeight="1">
+    <row r="48" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="12">
-        <v>287</v>
+        <v>8950</v>
       </c>
       <c r="C48" s="13">
-        <f>IF(B48-$B$4-$D$4&gt;0,-1*(B48-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-808.5</v>
       </c>
       <c r="D48" s="14">
-        <f>IF($B$5-B48-$D$5&gt;0,-1*($B$5-B48-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E48" s="14">
-        <f>IF(B48-$B$6-$C$6&gt;0,(B48-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>610</v>
       </c>
       <c r="F48" s="14">
-        <f>IF($B$7-B48-$C$7&gt;0,($B$7-B48-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G48" s="14">
-        <f>SUM(C48:F48)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-198.5</v>
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" ht="20.35" customHeight="1">
+    <row r="49" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="12">
-        <v>288</v>
+        <v>9000</v>
       </c>
       <c r="C49" s="13">
-        <f>IF(B49-$B$4-$D$4&gt;0,-1*(B49-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-1858.5</v>
       </c>
       <c r="D49" s="14">
-        <f>IF($B$5-B49-$D$5&gt;0,-1*($B$5-B49-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E49" s="14">
-        <f>IF(B49-$B$6-$C$6&gt;0,(B49-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>660</v>
       </c>
       <c r="F49" s="14">
-        <f>IF($B$7-B49-$C$7&gt;0,($B$7-B49-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G49" s="14">
-        <f>SUM(C49:F49)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-1198.5</v>
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" ht="20.35" customHeight="1">
+    <row r="50" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="12">
-        <v>289</v>
+        <v>9050</v>
       </c>
       <c r="C50" s="13">
-        <f>IF(B50-$B$4-$D$4&gt;0,-1*(B50-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-2908.5</v>
       </c>
       <c r="D50" s="14">
-        <f>IF($B$5-B50-$D$5&gt;0,-1*($B$5-B50-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E50" s="14">
-        <f>IF(B50-$B$6-$C$6&gt;0,(B50-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>710</v>
       </c>
       <c r="F50" s="14">
-        <f>IF($B$7-B50-$C$7&gt;0,($B$7-B50-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G50" s="14">
-        <f>SUM(C50:F50)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-2198.5</v>
       </c>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" ht="20.35" customHeight="1">
+    <row r="51" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="12">
-        <v>290</v>
+        <v>9100</v>
       </c>
       <c r="C51" s="13">
-        <f>IF(B51-$B$4-$D$4&gt;0,-1*(B51-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-3958.5</v>
       </c>
       <c r="D51" s="14">
-        <f>IF($B$5-B51-$D$5&gt;0,-1*($B$5-B51-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E51" s="14">
-        <f>IF(B51-$B$6-$C$6&gt;0,(B51-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>760</v>
       </c>
       <c r="F51" s="14">
-        <f>IF($B$7-B51-$C$7&gt;0,($B$7-B51-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G51" s="14">
-        <f>SUM(C51:F51)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-3198.5</v>
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" ht="20.35" customHeight="1">
+    <row r="52" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="12">
-        <v>291</v>
+        <v>9150</v>
       </c>
       <c r="C52" s="13">
-        <f>IF(B52-$B$4-$D$4&gt;0,-1*(B52-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-5008.5</v>
       </c>
       <c r="D52" s="14">
-        <f>IF($B$5-B52-$D$5&gt;0,-1*($B$5-B52-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E52" s="14">
-        <f>IF(B52-$B$6-$C$6&gt;0,(B52-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>810</v>
       </c>
       <c r="F52" s="14">
-        <f>IF($B$7-B52-$C$7&gt;0,($B$7-B52-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G52" s="14">
-        <f>SUM(C52:F52)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-4198.5</v>
       </c>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" ht="20.35" customHeight="1">
+    <row r="53" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="12">
-        <v>292</v>
+        <v>9200</v>
       </c>
       <c r="C53" s="13">
-        <f>IF(B53-$B$4-$D$4&gt;0,-1*(B53-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-6058.5</v>
       </c>
       <c r="D53" s="14">
-        <f>IF($B$5-B53-$D$5&gt;0,-1*($B$5-B53-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E53" s="14">
-        <f>IF(B53-$B$6-$C$6&gt;0,(B53-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>860</v>
       </c>
       <c r="F53" s="14">
-        <f>IF($B$7-B53-$C$7&gt;0,($B$7-B53-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G53" s="14">
-        <f>SUM(C53:F53)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-5198.5</v>
       </c>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" ht="20.35" customHeight="1">
+    <row r="54" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="12">
-        <v>293</v>
+        <v>9250</v>
       </c>
       <c r="C54" s="13">
-        <f>IF(B54-$B$4-$D$4&gt;0,-1*(B54-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-7108.5</v>
       </c>
       <c r="D54" s="14">
-        <f>IF($B$5-B54-$D$5&gt;0,-1*($B$5-B54-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E54" s="14">
-        <f>IF(B54-$B$6-$C$6&gt;0,(B54-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>910</v>
       </c>
       <c r="F54" s="14">
-        <f>IF($B$7-B54-$C$7&gt;0,($B$7-B54-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G54" s="14">
-        <f>SUM(C54:F54)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-6198.5</v>
       </c>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" ht="20.35" customHeight="1">
+    <row r="55" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="12">
-        <v>294</v>
+        <v>9300</v>
       </c>
       <c r="C55" s="13">
-        <f>IF(B55-$B$4-$D$4&gt;0,-1*(B55-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-8158.5</v>
       </c>
       <c r="D55" s="14">
-        <f>IF($B$5-B55-$D$5&gt;0,-1*($B$5-B55-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E55" s="14">
-        <f>IF(B55-$B$6-$C$6&gt;0,(B55-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="F55" s="14">
-        <f>IF($B$7-B55-$C$7&gt;0,($B$7-B55-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G55" s="14">
-        <f>SUM(C55:F55)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-7198.5</v>
       </c>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" ht="20.35" customHeight="1">
+    <row r="56" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="12">
-        <v>295</v>
+        <v>9350</v>
       </c>
       <c r="C56" s="13">
-        <f>IF(B56-$B$4-$D$4&gt;0,-1*(B56-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-9208.5</v>
       </c>
       <c r="D56" s="14">
-        <f>IF($B$5-B56-$D$5&gt;0,-1*($B$5-B56-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E56" s="14">
-        <f>IF(B56-$B$6-$C$6&gt;0,(B56-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1010</v>
       </c>
       <c r="F56" s="14">
-        <f>IF($B$7-B56-$C$7&gt;0,($B$7-B56-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G56" s="14">
-        <f>SUM(C56:F56)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-8198.5</v>
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" ht="20.35" customHeight="1">
+    <row r="57" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="12">
-        <v>296</v>
+        <v>9400</v>
       </c>
       <c r="C57" s="13">
-        <f>IF(B57-$B$4-$D$4&gt;0,-1*(B57-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-10258.5</v>
       </c>
       <c r="D57" s="14">
-        <f>IF($B$5-B57-$D$5&gt;0,-1*($B$5-B57-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E57" s="14">
-        <f>IF(B57-$B$6-$C$6&gt;0,(B57-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1060</v>
       </c>
       <c r="F57" s="14">
-        <f>IF($B$7-B57-$C$7&gt;0,($B$7-B57-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G57" s="14">
-        <f>SUM(C57:F57)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-9198.5</v>
       </c>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" ht="20.35" customHeight="1">
+    <row r="58" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="12">
-        <v>297</v>
+        <v>9450</v>
       </c>
       <c r="C58" s="13">
-        <f>IF(B58-$B$4-$D$4&gt;0,-1*(B58-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-11308.5</v>
       </c>
       <c r="D58" s="14">
-        <f>IF($B$5-B58-$D$5&gt;0,-1*($B$5-B58-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E58" s="14">
-        <f>IF(B58-$B$6-$C$6&gt;0,(B58-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1110</v>
       </c>
       <c r="F58" s="14">
-        <f>IF($B$7-B58-$C$7&gt;0,($B$7-B58-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G58" s="14">
-        <f>SUM(C58:F58)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-10198.5</v>
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" ht="20.35" customHeight="1">
+    <row r="59" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="12">
-        <v>298</v>
+        <v>9500</v>
       </c>
       <c r="C59" s="13">
-        <f>IF(B59-$B$4-$D$4&gt;0,-1*(B59-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-12358.5</v>
       </c>
       <c r="D59" s="14">
-        <f>IF($B$5-B59-$D$5&gt;0,-1*($B$5-B59-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E59" s="14">
-        <f>IF(B59-$B$6-$C$6&gt;0,(B59-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1160</v>
       </c>
       <c r="F59" s="14">
-        <f>IF($B$7-B59-$C$7&gt;0,($B$7-B59-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G59" s="14">
-        <f>SUM(C59:F59)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-11198.5</v>
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" ht="20.35" customHeight="1">
+    <row r="60" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="12">
-        <v>299</v>
+        <v>9550</v>
       </c>
       <c r="C60" s="13">
-        <f>IF(B60-$B$4-$D$4&gt;0,-1*(B60-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-13408.5</v>
       </c>
       <c r="D60" s="14">
-        <f>IF($B$5-B60-$D$5&gt;0,-1*($B$5-B60-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E60" s="14">
-        <f>IF(B60-$B$6-$C$6&gt;0,(B60-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1210</v>
       </c>
       <c r="F60" s="14">
-        <f>IF($B$7-B60-$C$7&gt;0,($B$7-B60-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G60" s="14">
-        <f>SUM(C60:F60)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-12198.5</v>
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" ht="20.35" customHeight="1">
+    <row r="61" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="12">
-        <v>300</v>
+        <v>9600</v>
       </c>
       <c r="C61" s="13">
-        <f>IF(B61-$B$4-$D$4&gt;0,-1*(B61-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-14458.5</v>
       </c>
       <c r="D61" s="14">
-        <f>IF($B$5-B61-$D$5&gt;0,-1*($B$5-B61-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E61" s="14">
-        <f>IF(B61-$B$6-$C$6&gt;0,(B61-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1260</v>
       </c>
       <c r="F61" s="14">
-        <f>IF($B$7-B61-$C$7&gt;0,($B$7-B61-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G61" s="14">
-        <f>SUM(C61:F61)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-13198.5</v>
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" ht="20.35" customHeight="1">
+    <row r="62" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="12">
-        <v>301</v>
+        <v>9650</v>
       </c>
       <c r="C62" s="13">
-        <f>IF(B62-$B$4-$D$4&gt;0,-1*(B62-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-15508.5</v>
       </c>
       <c r="D62" s="14">
-        <f>IF($B$5-B62-$D$5&gt;0,-1*($B$5-B62-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E62" s="14">
-        <f>IF(B62-$B$6-$C$6&gt;0,(B62-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1310</v>
       </c>
       <c r="F62" s="14">
-        <f>IF($B$7-B62-$C$7&gt;0,($B$7-B62-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G62" s="14">
-        <f>SUM(C62:F62)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-14198.5</v>
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" ht="20.35" customHeight="1">
+    <row r="63" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="12">
-        <v>302</v>
+        <v>9700</v>
       </c>
       <c r="C63" s="13">
-        <f>IF(B63-$B$4-$D$4&gt;0,-1*(B63-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-16558.5</v>
       </c>
       <c r="D63" s="14">
-        <f>IF($B$5-B63-$D$5&gt;0,-1*($B$5-B63-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E63" s="14">
-        <f>IF(B63-$B$6-$C$6&gt;0,(B63-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1360</v>
       </c>
       <c r="F63" s="14">
-        <f>IF($B$7-B63-$C$7&gt;0,($B$7-B63-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G63" s="14">
-        <f>SUM(C63:F63)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-15198.5</v>
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" ht="20.35" customHeight="1">
+    <row r="64" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="12">
-        <v>303</v>
+        <v>9750</v>
       </c>
       <c r="C64" s="13">
-        <f>IF(B64-$B$4-$D$4&gt;0,-1*(B64-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-17608.5</v>
       </c>
       <c r="D64" s="14">
-        <f>IF($B$5-B64-$D$5&gt;0,-1*($B$5-B64-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E64" s="14">
-        <f>IF(B64-$B$6-$C$6&gt;0,(B64-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1410</v>
       </c>
       <c r="F64" s="14">
-        <f>IF($B$7-B64-$C$7&gt;0,($B$7-B64-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G64" s="14">
-        <f>SUM(C64:F64)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-16198.5</v>
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" ht="20.35" customHeight="1">
+    <row r="65" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="12">
-        <v>304</v>
+        <v>9800</v>
       </c>
       <c r="C65" s="13">
-        <f>IF(B65-$B$4-$D$4&gt;0,-1*(B65-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-18658.5</v>
       </c>
       <c r="D65" s="14">
-        <f>IF($B$5-B65-$D$5&gt;0,-1*($B$5-B65-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E65" s="14">
-        <f>IF(B65-$B$6-$C$6&gt;0,(B65-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1460</v>
       </c>
       <c r="F65" s="14">
-        <f>IF($B$7-B65-$C$7&gt;0,($B$7-B65-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G65" s="14">
-        <f>SUM(C65:F65)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-17198.5</v>
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" ht="20.35" customHeight="1">
+    <row r="66" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="12">
-        <v>305</v>
+        <v>9850</v>
       </c>
       <c r="C66" s="13">
-        <f>IF(B66-$B$4-$D$4&gt;0,-1*(B66-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-19708.5</v>
       </c>
       <c r="D66" s="14">
-        <f>IF($B$5-B66-$D$5&gt;0,-1*($B$5-B66-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E66" s="14">
-        <f>IF(B66-$B$6-$C$6&gt;0,(B66-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1510</v>
       </c>
       <c r="F66" s="14">
-        <f>IF($B$7-B66-$C$7&gt;0,($B$7-B66-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G66" s="14">
-        <f>SUM(C66:F66)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-18198.5</v>
       </c>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" ht="20.35" customHeight="1">
+    <row r="67" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="12">
-        <v>306</v>
+        <v>9900</v>
       </c>
       <c r="C67" s="13">
-        <f>IF(B67-$B$4-$D$4&gt;0,-1*(B67-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>3.8</v>
+        <f t="shared" si="1"/>
+        <v>-20758.5</v>
       </c>
       <c r="D67" s="14">
-        <f>IF($B$5-B67-$D$5&gt;0,-1*($B$5-B67-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E67" s="14">
-        <f>IF(B67-$B$6-$C$6&gt;0,(B67-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1560</v>
       </c>
       <c r="F67" s="14">
-        <f>IF($B$7-B67-$C$7&gt;0,($B$7-B67-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G67" s="14">
-        <f>SUM(C67:F67)</f>
-        <v>4.1</v>
+        <f t="shared" si="5"/>
+        <v>-19198.5</v>
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" ht="20.35" customHeight="1">
+    <row r="68" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="12">
-        <v>307</v>
+        <v>9950</v>
       </c>
       <c r="C68" s="13">
-        <f>IF(B68-$B$4-$D$4&gt;0,-1*(B68-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-0.2000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>-21808.5</v>
       </c>
       <c r="D68" s="14">
-        <f>IF($B$5-B68-$D$5&gt;0,-1*($B$5-B68-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E68" s="14">
-        <f>IF(B68-$B$6-$C$6&gt;0,(B68-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1610</v>
       </c>
       <c r="F68" s="14">
-        <f>IF($B$7-B68-$C$7&gt;0,($B$7-B68-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G68" s="14">
-        <f>SUM(C68:F68)</f>
-        <v>0.1000000000000001</v>
+        <f t="shared" si="5"/>
+        <v>-20198.5</v>
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" ht="20.35" customHeight="1">
+    <row r="69" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="12">
-        <v>308</v>
+        <v>10000</v>
       </c>
       <c r="C69" s="13">
-        <f>IF(B69-$B$4-$D$4&gt;0,-1*(B69-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-2.2</v>
+        <f t="shared" si="1"/>
+        <v>-22858.5</v>
       </c>
       <c r="D69" s="14">
-        <f>IF($B$5-B69-$D$5&gt;0,-1*($B$5-B69-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E69" s="14">
-        <f>IF(B69-$B$6-$C$6&gt;0,(B69-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1660</v>
       </c>
       <c r="F69" s="14">
-        <f>IF($B$7-B69-$C$7&gt;0,($B$7-B69-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G69" s="14">
-        <f>SUM(C69:F69)</f>
-        <v>-1.9</v>
+        <f t="shared" si="5"/>
+        <v>-21198.5</v>
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
+    <row r="70" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="12">
-        <v>309</v>
+        <v>10050</v>
       </c>
       <c r="C70" s="13">
-        <f>IF(B70-$B$4-$D$4&gt;0,-1*(B70-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-4.2</v>
+        <f t="shared" si="1"/>
+        <v>-23908.5</v>
       </c>
       <c r="D70" s="14">
-        <f>IF($B$5-B70-$D$5&gt;0,-1*($B$5-B70-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E70" s="14">
-        <f>IF(B70-$B$6-$C$6&gt;0,(B70-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1710</v>
       </c>
       <c r="F70" s="14">
-        <f>IF($B$7-B70-$C$7&gt;0,($B$7-B70-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G70" s="14">
-        <f>SUM(C70:F70)</f>
-        <v>-3.9</v>
+        <f t="shared" si="5"/>
+        <v>-22198.5</v>
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" ht="20.35" customHeight="1">
+    <row r="71" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="12">
-        <v>310</v>
+        <v>10100</v>
       </c>
       <c r="C71" s="13">
-        <f>IF(B71-$B$4-$D$4&gt;0,-1*(B71-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-6.2</v>
+        <f t="shared" si="1"/>
+        <v>-24958.5</v>
       </c>
       <c r="D71" s="14">
-        <f>IF($B$5-B71-$D$5&gt;0,-1*($B$5-B71-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E71" s="14">
-        <f>IF(B71-$B$6-$C$6&gt;0,(B71-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1760</v>
       </c>
       <c r="F71" s="14">
-        <f>IF($B$7-B71-$C$7&gt;0,($B$7-B71-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G71" s="14">
-        <f>SUM(C71:F71)</f>
-        <v>-5.9</v>
+        <f t="shared" si="5"/>
+        <v>-23198.5</v>
       </c>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" ht="20.35" customHeight="1">
+    <row r="72" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="12">
-        <v>311</v>
+        <v>10150</v>
       </c>
       <c r="C72" s="13">
-        <f>IF(B72-$B$4-$D$4&gt;0,-1*(B72-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-8.199999999999999</v>
+        <f t="shared" si="1"/>
+        <v>-26008.5</v>
       </c>
       <c r="D72" s="14">
-        <f>IF($B$5-B72-$D$5&gt;0,-1*($B$5-B72-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E72" s="14">
-        <f>IF(B72-$B$6-$C$6&gt;0,(B72-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>-1.4</v>
+        <f t="shared" si="3"/>
+        <v>1810</v>
       </c>
       <c r="F72" s="14">
-        <f>IF($B$7-B72-$C$7&gt;0,($B$7-B72-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G72" s="14">
-        <f>SUM(C72:F72)</f>
-        <v>-7.899999999999999</v>
+        <f t="shared" si="5"/>
+        <v>-24198.5</v>
       </c>
       <c r="H72" s="18"/>
     </row>
-    <row r="73" ht="20.35" customHeight="1">
+    <row r="73" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="12">
-        <v>312</v>
+        <v>10200</v>
       </c>
       <c r="C73" s="13">
-        <f>IF(B73-$B$4-$D$4&gt;0,-1*(B73-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-10.2</v>
+        <f t="shared" si="1"/>
+        <v>-27058.5</v>
       </c>
       <c r="D73" s="14">
-        <f>IF($B$5-B73-$D$5&gt;0,-1*($B$5-B73-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E73" s="14">
-        <f>IF(B73-$B$6-$C$6&gt;0,(B73-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>0.6000000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1860</v>
       </c>
       <c r="F73" s="14">
-        <f>IF($B$7-B73-$C$7&gt;0,($B$7-B73-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G73" s="14">
-        <f>SUM(C73:F73)</f>
-        <v>-7.899999999999999</v>
+        <f t="shared" si="5"/>
+        <v>-25198.5</v>
       </c>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" ht="20.35" customHeight="1">
+    <row r="74" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="12">
-        <v>313</v>
+        <v>10250</v>
       </c>
       <c r="C74" s="13">
-        <f>IF(B74-$B$4-$D$4&gt;0,-1*(B74-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-12.2</v>
+        <f t="shared" si="1"/>
+        <v>-28108.5</v>
       </c>
       <c r="D74" s="14">
-        <f>IF($B$5-B74-$D$5&gt;0,-1*($B$5-B74-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E74" s="14">
-        <f>IF(B74-$B$6-$C$6&gt;0,(B74-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>1.6</v>
+        <f t="shared" si="3"/>
+        <v>1910</v>
       </c>
       <c r="F74" s="14">
-        <f>IF($B$7-B74-$C$7&gt;0,($B$7-B74-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G74" s="14">
-        <f>SUM(C74:F74)</f>
-        <v>-8.9</v>
+        <f t="shared" si="5"/>
+        <v>-26198.5</v>
       </c>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" ht="20.35" customHeight="1">
+    <row r="75" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="12">
-        <v>314</v>
+        <v>10300</v>
       </c>
       <c r="C75" s="13">
-        <f>IF(B75-$B$4-$D$4&gt;0,-1*(B75-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-14.2</v>
+        <f t="shared" si="1"/>
+        <v>-29158.5</v>
       </c>
       <c r="D75" s="14">
-        <f>IF($B$5-B75-$D$5&gt;0,-1*($B$5-B75-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E75" s="14">
-        <f>IF(B75-$B$6-$C$6&gt;0,(B75-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>2.6</v>
+        <f t="shared" si="3"/>
+        <v>1960</v>
       </c>
       <c r="F75" s="14">
-        <f>IF($B$7-B75-$C$7&gt;0,($B$7-B75-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G75" s="14">
-        <f>SUM(C75:F75)</f>
-        <v>-9.9</v>
+        <f t="shared" ref="G75:G106" si="6">SUM(C75:F75)</f>
+        <v>-27198.5</v>
       </c>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" ht="20.35" customHeight="1">
+    <row r="76" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
       <c r="B76" s="12">
-        <v>315</v>
+        <v>10350</v>
       </c>
       <c r="C76" s="13">
-        <f>IF(B76-$B$4-$D$4&gt;0,-1*(B76-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-16.2</v>
+        <f t="shared" ref="C76:C86" si="7">IF(B76-$B$4&gt;0,-1*(B76-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
+        <v>-30208.5</v>
       </c>
       <c r="D76" s="14">
-        <f>IF($B$5-B76-$D$5&gt;0,-1*($B$5-B76-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" ref="D76:D86" si="8">IF($B$5-B76&gt;0,-1*($B$5-B76-$D$5)*$E$5,$D$5*$E$5)</f>
+        <v>0</v>
       </c>
       <c r="E76" s="14">
-        <f>IF(B76-$B$6-$C$6&gt;0,(B76-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>3.6</v>
+        <f t="shared" ref="E76:E86" si="9">IF(B76-$B$6&gt;0,(B76-$B$6-$C$6)*$E$6,-1 * $C$6*$E$6)</f>
+        <v>2010</v>
       </c>
       <c r="F76" s="14">
-        <f>IF($B$7-B76-$C$7&gt;0,($B$7-B76-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" ref="F76:F86" si="10">IF($B$7-B76&gt;0,($B$7-B76-$C$7)*$E$7,-1*$C$7*$E$7)</f>
+        <v>0</v>
       </c>
       <c r="G76" s="14">
-        <f>SUM(C76:F76)</f>
-        <v>-10.9</v>
+        <f t="shared" si="6"/>
+        <v>-28198.5</v>
       </c>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" ht="20.35" customHeight="1">
+    <row r="77" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
       <c r="B77" s="12">
-        <v>316</v>
+        <v>10400</v>
       </c>
       <c r="C77" s="13">
-        <f>IF(B77-$B$4-$D$4&gt;0,-1*(B77-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-18.2</v>
+        <f t="shared" si="7"/>
+        <v>-31258.5</v>
       </c>
       <c r="D77" s="14">
-        <f>IF($B$5-B77-$D$5&gt;0,-1*($B$5-B77-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E77" s="14">
-        <f>IF(B77-$B$6-$C$6&gt;0,(B77-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>4.6</v>
+        <f t="shared" si="9"/>
+        <v>2060</v>
       </c>
       <c r="F77" s="14">
-        <f>IF($B$7-B77-$C$7&gt;0,($B$7-B77-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G77" s="14">
-        <f>SUM(C77:F77)</f>
-        <v>-11.9</v>
+        <f t="shared" si="6"/>
+        <v>-29198.5</v>
       </c>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" ht="20.35" customHeight="1">
+    <row r="78" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
       <c r="B78" s="12">
-        <v>317</v>
+        <v>10450</v>
       </c>
       <c r="C78" s="13">
-        <f>IF(B78-$B$4-$D$4&gt;0,-1*(B78-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-20.2</v>
+        <f t="shared" si="7"/>
+        <v>-32308.5</v>
       </c>
       <c r="D78" s="14">
-        <f>IF($B$5-B78-$D$5&gt;0,-1*($B$5-B78-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E78" s="14">
-        <f>IF(B78-$B$6-$C$6&gt;0,(B78-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>5.6</v>
+        <f t="shared" si="9"/>
+        <v>2110</v>
       </c>
       <c r="F78" s="14">
-        <f>IF($B$7-B78-$C$7&gt;0,($B$7-B78-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G78" s="14">
-        <f>SUM(C78:F78)</f>
-        <v>-12.9</v>
+        <f t="shared" si="6"/>
+        <v>-30198.5</v>
       </c>
       <c r="H78" s="18"/>
     </row>
-    <row r="79" ht="20.35" customHeight="1">
+    <row r="79" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="12">
-        <v>318</v>
+        <v>10500</v>
       </c>
       <c r="C79" s="13">
-        <f>IF(B79-$B$4-$D$4&gt;0,-1*(B79-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-22.2</v>
+        <f t="shared" si="7"/>
+        <v>-33358.5</v>
       </c>
       <c r="D79" s="14">
-        <f>IF($B$5-B79-$D$5&gt;0,-1*($B$5-B79-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E79" s="14">
-        <f>IF(B79-$B$6-$C$6&gt;0,(B79-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>6.6</v>
+        <f t="shared" si="9"/>
+        <v>2160</v>
       </c>
       <c r="F79" s="14">
-        <f>IF($B$7-B79-$C$7&gt;0,($B$7-B79-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G79" s="14">
-        <f>SUM(C79:F79)</f>
-        <v>-13.9</v>
+        <f t="shared" si="6"/>
+        <v>-31198.5</v>
       </c>
       <c r="H79" s="18"/>
     </row>
-    <row r="80" ht="20.35" customHeight="1">
+    <row r="80" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
       <c r="B80" s="12">
-        <v>319</v>
+        <v>10550</v>
       </c>
       <c r="C80" s="13">
-        <f>IF(B80-$B$4-$D$4&gt;0,-1*(B80-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-24.2</v>
+        <f t="shared" si="7"/>
+        <v>-34408.5</v>
       </c>
       <c r="D80" s="14">
-        <f>IF($B$5-B80-$D$5&gt;0,-1*($B$5-B80-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E80" s="14">
-        <f>IF(B80-$B$6-$C$6&gt;0,(B80-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>7.6</v>
+        <f t="shared" si="9"/>
+        <v>2210</v>
       </c>
       <c r="F80" s="14">
-        <f>IF($B$7-B80-$C$7&gt;0,($B$7-B80-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G80" s="14">
-        <f>SUM(C80:F80)</f>
-        <v>-14.9</v>
+        <f t="shared" si="6"/>
+        <v>-32198.5</v>
       </c>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" ht="20.35" customHeight="1">
+    <row r="81" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="12">
-        <v>320</v>
+        <v>10600</v>
       </c>
       <c r="C81" s="13">
-        <f>IF(B81-$B$4-$D$4&gt;0,-1*(B81-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-26.2</v>
+        <f t="shared" si="7"/>
+        <v>-35458.5</v>
       </c>
       <c r="D81" s="14">
-        <f>IF($B$5-B81-$D$5&gt;0,-1*($B$5-B81-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E81" s="14">
-        <f>IF(B81-$B$6-$C$6&gt;0,(B81-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>8.6</v>
+        <f t="shared" si="9"/>
+        <v>2260</v>
       </c>
       <c r="F81" s="14">
-        <f>IF($B$7-B81-$C$7&gt;0,($B$7-B81-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G81" s="14">
-        <f>SUM(C81:F81)</f>
-        <v>-15.9</v>
+        <f t="shared" si="6"/>
+        <v>-33198.5</v>
       </c>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" ht="20.35" customHeight="1">
+    <row r="82" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
       <c r="B82" s="12">
-        <v>321</v>
+        <v>10650</v>
       </c>
       <c r="C82" s="13">
-        <f>IF(B82-$B$4-$D$4&gt;0,-1*(B82-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-28.2</v>
+        <f t="shared" si="7"/>
+        <v>-36508.5</v>
       </c>
       <c r="D82" s="14">
-        <f>IF($B$5-B82-$D$5&gt;0,-1*($B$5-B82-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E82" s="14">
-        <f>IF(B82-$B$6-$C$6&gt;0,(B82-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>9.6</v>
+        <f t="shared" si="9"/>
+        <v>2310</v>
       </c>
       <c r="F82" s="14">
-        <f>IF($B$7-B82-$C$7&gt;0,($B$7-B82-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G82" s="14">
-        <f>SUM(C82:F82)</f>
-        <v>-16.9</v>
+        <f t="shared" si="6"/>
+        <v>-34198.5</v>
       </c>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" ht="20.35" customHeight="1">
+    <row r="83" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="12">
-        <v>322</v>
+        <v>10700</v>
       </c>
       <c r="C83" s="13">
-        <f>IF(B83-$B$4-$D$4&gt;0,-1*(B83-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-30.2</v>
+        <f t="shared" si="7"/>
+        <v>-37558.5</v>
       </c>
       <c r="D83" s="14">
-        <f>IF($B$5-B83-$D$5&gt;0,-1*($B$5-B83-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E83" s="14">
-        <f>IF(B83-$B$6-$C$6&gt;0,(B83-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>10.6</v>
+        <f t="shared" si="9"/>
+        <v>2360</v>
       </c>
       <c r="F83" s="14">
-        <f>IF($B$7-B83-$C$7&gt;0,($B$7-B83-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G83" s="14">
-        <f>SUM(C83:F83)</f>
-        <v>-17.9</v>
+        <f t="shared" si="6"/>
+        <v>-35198.5</v>
       </c>
       <c r="H83" s="18"/>
     </row>
-    <row r="84" ht="20.35" customHeight="1">
+    <row r="84" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
       <c r="B84" s="12">
-        <v>323</v>
+        <v>10750</v>
       </c>
       <c r="C84" s="13">
-        <f>IF(B84-$B$4-$D$4&gt;0,-1*(B84-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-32.2</v>
+        <f t="shared" si="7"/>
+        <v>-38608.5</v>
       </c>
       <c r="D84" s="14">
-        <f>IF($B$5-B84-$D$5&gt;0,-1*($B$5-B84-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E84" s="14">
-        <f>IF(B84-$B$6-$C$6&gt;0,(B84-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>11.6</v>
+        <f t="shared" si="9"/>
+        <v>2410</v>
       </c>
       <c r="F84" s="14">
-        <f>IF($B$7-B84-$C$7&gt;0,($B$7-B84-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G84" s="14">
-        <f>SUM(C84:F84)</f>
-        <v>-18.90000000000001</v>
+        <f t="shared" si="6"/>
+        <v>-36198.5</v>
       </c>
       <c r="H84" s="18"/>
     </row>
-    <row r="85" ht="20.35" customHeight="1">
+    <row r="85" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
       <c r="B85" s="12">
-        <v>324</v>
+        <v>10800</v>
       </c>
       <c r="C85" s="13">
-        <f>IF(B85-$B$4-$D$4&gt;0,-1*(B85-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-34.2</v>
+        <f t="shared" si="7"/>
+        <v>-39658.5</v>
       </c>
       <c r="D85" s="14">
-        <f>IF($B$5-B85-$D$5&gt;0,-1*($B$5-B85-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E85" s="14">
-        <f>IF(B85-$B$6-$C$6&gt;0,(B85-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>12.6</v>
+        <f t="shared" si="9"/>
+        <v>2460</v>
       </c>
       <c r="F85" s="14">
-        <f>IF($B$7-B85-$C$7&gt;0,($B$7-B85-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G85" s="14">
-        <f>SUM(C85:F85)</f>
-        <v>-19.90000000000001</v>
+        <f t="shared" si="6"/>
+        <v>-37198.5</v>
       </c>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" ht="20.35" customHeight="1">
+    <row r="86" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="12">
-        <v>325</v>
+        <v>10850</v>
       </c>
       <c r="C86" s="13">
-        <f>IF(B86-$B$4-$D$4&gt;0,-1*(B86-$B$4-$D$4)*$E$4,$D$4*$E$4)</f>
-        <v>-36.2</v>
+        <f t="shared" si="7"/>
+        <v>-40708.5</v>
       </c>
       <c r="D86" s="14">
-        <f>IF($B$5-B86-$D$5&gt;0,-1*($B$5-B86-$D$5)*$E$5,$D$5*$E$5)</f>
-        <v>2.7</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="E86" s="14">
-        <f>IF(B86-$B$6-$C$6&gt;0,(B86-$B$6-$C$6)*$E$6,-1*$C$6*$E$6)</f>
-        <v>13.6</v>
+        <f t="shared" si="9"/>
+        <v>2510</v>
       </c>
       <c r="F86" s="14">
-        <f>IF($B$7-B86-$C$7&gt;0,($B$7-B86-$C$7)*$E$7,-1*$C$7*$E$7)</f>
-        <v>-1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G86" s="14">
-        <f>SUM(C86:F86)</f>
-        <v>-20.9</v>
+        <f t="shared" si="6"/>
+        <v>-38198.5</v>
       </c>
       <c r="H86" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
